--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2443671.618979918</v>
+        <v>-2444388.855595396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730079</v>
+        <v>4950248.695730081</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>129.7779839268083</v>
+        <v>102.797925395483</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157629</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H11" t="n">
         <v>174.2835417775414</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.534253539098</v>
+        <v>22.53425353909798</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261856</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U11" t="n">
         <v>103.2926861902832</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.829994649431512</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
         <v>160.0866360314548</v>
@@ -1458,13 +1458,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.02901935393508</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>36.49439094626081</v>
+        <v>137.4875367954824</v>
       </c>
       <c r="U12" t="n">
-        <v>67.29323155474326</v>
+        <v>67.29323155474323</v>
       </c>
       <c r="V12" t="n">
-        <v>101.5366245901508</v>
+        <v>77.11641262213257</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>89.90745637500626</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.72456129351926</v>
+        <v>32.72456129351923</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891974</v>
+        <v>18.92455613891971</v>
       </c>
       <c r="D13" t="n">
-        <v>2.54592053649813</v>
+        <v>2.545920536498102</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277579</v>
+        <v>1.493670392277551</v>
       </c>
       <c r="F13" t="n">
-        <v>1.960594720463888</v>
+        <v>1.96059472046386</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697629</v>
+        <v>17.96311329697626</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783401</v>
+        <v>6.363700576783389</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224585</v>
+        <v>57.83398394224582</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961886</v>
+        <v>80.68894132961883</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.94468575956122</v>
+        <v>79.9446857595612</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562891</v>
+        <v>70.81955351562888</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>220.1004714210318</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>261.0144250789145</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909794</v>
+        <v>22.53425353909798</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261851</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590012</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369581</v>
+        <v>109.9810584411427</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.45800864084806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,16 +1689,16 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>84.29522863382181</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U15" t="n">
         <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
-        <v>77.11641262213254</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
-        <v>89.90745637500623</v>
+        <v>144.604465992465</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>46.94256453696656</v>
       </c>
       <c r="Y15" t="n">
         <v>190.5961130869169</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.7245612935192</v>
+        <v>32.72456129351923</v>
       </c>
       <c r="C16" t="n">
-        <v>18.92455613891968</v>
+        <v>18.92455613891971</v>
       </c>
       <c r="D16" t="n">
-        <v>2.545920536498073</v>
+        <v>2.545920536498102</v>
       </c>
       <c r="E16" t="n">
-        <v>1.493670392277522</v>
+        <v>1.493670392277551</v>
       </c>
       <c r="F16" t="n">
-        <v>1.960594720463831</v>
+        <v>1.96059472046386</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697623</v>
+        <v>17.96311329697626</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783359</v>
+        <v>6.363700576783389</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.83398394224578</v>
+        <v>57.83398394224582</v>
       </c>
       <c r="T16" t="n">
-        <v>80.6889413296188</v>
+        <v>80.68894132961883</v>
       </c>
       <c r="U16" t="n">
         <v>135.3082370038742</v>
@@ -1828,10 +1828,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X16" t="n">
-        <v>79.94468575956117</v>
+        <v>79.9446857595612</v>
       </c>
       <c r="Y16" t="n">
-        <v>70.81955351562885</v>
+        <v>70.81955351562888</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.09313613899538</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V17" t="n">
         <v>89.41467760771349</v>
@@ -1907,7 +1907,7 @@
         <v>114.7147770856704</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0150353184148</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
         <v>145.4116331146158</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>104.977872939696</v>
       </c>
       <c r="G18" t="n">
         <v>127.1165548494722</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
-        <v>190.6038516968143</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,25 +2005,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>144.4847002898225</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>40.10868695258642</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185703</v>
+        <v>197.6603360793303</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247029</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.9083003675344</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C20" t="n">
-        <v>133.9196173252161</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D20" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E20" t="n">
-        <v>146.6430589396496</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G20" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H20" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.09313613899538</v>
+        <v>8.093136138995305</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771349</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W20" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X20" t="n">
-        <v>134.015035318417</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.4116331146158</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.28368235524072</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28848525876</v>
+        <v>201.976645622518</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2254,13 +2254,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.5756943977516</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.21324716010341</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.3602574048548</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R22" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>175.5656037534085</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.10868695258642</v>
+        <v>54.58489798297929</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185703</v>
+        <v>13.93314764185695</v>
       </c>
       <c r="W22" t="n">
-        <v>39.10003371247029</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.9083003675344</v>
+        <v>145.9083003675343</v>
       </c>
       <c r="C23" t="n">
-        <v>133.9196173252161</v>
+        <v>133.919617325216</v>
       </c>
       <c r="D23" t="n">
-        <v>124.9009213697441</v>
+        <v>124.900921369744</v>
       </c>
       <c r="E23" t="n">
-        <v>146.6430589396496</v>
+        <v>146.6430589396495</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8148750276268</v>
+        <v>165.8148750276267</v>
       </c>
       <c r="G23" t="n">
-        <v>167.1413550644751</v>
+        <v>167.141355064475</v>
       </c>
       <c r="H23" t="n">
-        <v>79.0839917262536</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995391</v>
+        <v>8.093136138995305</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771349</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W23" t="n">
-        <v>114.7147770856704</v>
+        <v>114.7147770856703</v>
       </c>
       <c r="X23" t="n">
-        <v>134.015035318417</v>
+        <v>134.0150353184169</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.4116331146158</v>
+        <v>145.4116331146157</v>
       </c>
     </row>
     <row r="24">
@@ -2400,10 +2400,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>25.13777204883797</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -2412,10 +2412,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>54.82075120251351</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.3602574048548</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>284.303490707891</v>
       </c>
       <c r="V25" t="n">
-        <v>15.3417116734826</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247029</v>
+        <v>151.9988532932586</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629993</v>
+        <v>46.57653758629996</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702091001</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244306</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S27" t="n">
         <v>145.2410726443114</v>
@@ -2728,10 +2728,10 @@
         <v>65.83906677878826</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859541</v>
+        <v>54.23965405859542</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554681</v>
+        <v>33.45639417554682</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723275</v>
+        <v>34.66887443723277</v>
       </c>
       <c r="S28" t="n">
         <v>105.7099374240578</v>
@@ -2798,7 +2798,7 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E29" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727495</v>
       </c>
       <c r="F29" t="n">
         <v>308.8903785607266</v>
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629991</v>
+        <v>46.57653758629996</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702090999</v>
       </c>
       <c r="T29" t="n">
-        <v>118.3398427244305</v>
+        <v>118.3398427244306</v>
       </c>
       <c r="U29" t="n">
         <v>151.1686396720952</v>
@@ -2858,7 +2858,7 @@
         <v>277.0905388515168</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.4871366477155</v>
+        <v>288.4871366477156</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533125</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073173</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831012</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408957</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227588</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878826</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859538</v>
+        <v>54.23965405859541</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554678</v>
+        <v>33.45639417554681</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723273</v>
+        <v>34.66887443723276</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3029,25 +3029,25 @@
         <v>288.9838039006341</v>
       </c>
       <c r="C32" t="n">
-        <v>276.9951208583159</v>
+        <v>276.9951208583158</v>
       </c>
       <c r="D32" t="n">
-        <v>267.9764249028439</v>
+        <v>267.9764249028438</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727493</v>
       </c>
       <c r="F32" t="n">
-        <v>308.8903785607266</v>
+        <v>308.8903785607265</v>
       </c>
       <c r="G32" t="n">
-        <v>310.2168585975749</v>
+        <v>310.2168585975748</v>
       </c>
       <c r="H32" t="n">
-        <v>222.1594952593534</v>
+        <v>222.1594952593533</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629992</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090997</v>
+        <v>70.41020702090994</v>
       </c>
       <c r="T32" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U32" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V32" t="n">
-        <v>232.4901811408133</v>
+        <v>232.4901811408132</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7902806187702</v>
+        <v>257.7902806187701</v>
       </c>
       <c r="X32" t="n">
-        <v>277.0905388515168</v>
+        <v>277.0905388515167</v>
       </c>
       <c r="Y32" t="n">
         <v>288.4871366477155</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S33" t="n">
         <v>145.2410726443114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533123</v>
+        <v>80.60051477533118</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073172</v>
+        <v>66.80050962073166</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831011</v>
+        <v>50.42187401831005</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408956</v>
+        <v>49.3696238740895</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227586</v>
+        <v>49.83654820227581</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878825</v>
+        <v>65.83906677878821</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859533</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554674</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723269</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
       </c>
       <c r="T34" t="n">
-        <v>128.5648948114308</v>
+        <v>128.5648948114307</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1841904856862</v>
+        <v>183.1841904856861</v>
       </c>
       <c r="V34" t="n">
         <v>157.0086511749568</v>
       </c>
       <c r="W34" t="n">
-        <v>182.1755372455701</v>
+        <v>182.17553724557</v>
       </c>
       <c r="X34" t="n">
-        <v>127.8206392413732</v>
+        <v>127.8206392413731</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.6955069974409</v>
+        <v>118.6955069974408</v>
       </c>
     </row>
     <row r="35">
@@ -3357,7 +3357,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.1165548494722</v>
+        <v>50.78790158932797</v>
       </c>
       <c r="H36" t="n">
         <v>95.80294554235505</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S36" t="n">
-        <v>68.91241938416688</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T36" t="n">
         <v>185.4896446502776</v>
@@ -3466,22 +3466,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.63581932673282</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>206.8292376462626</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T37" t="n">
         <v>58.15468779052083</v>
       </c>
       <c r="U37" t="n">
-        <v>112.7739834647762</v>
+        <v>170.7700601963639</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404683</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>111.7653302246601</v>
@@ -3594,7 +3594,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>50.78790158932885</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
         <v>95.80294554235505</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2410726443114</v>
+        <v>68.91241938416732</v>
       </c>
       <c r="T39" t="n">
         <v>185.4896446502776</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>93.2958071347357</v>
+        <v>93.29580713473547</v>
       </c>
       <c r="T40" t="n">
         <v>58.15468779052083</v>
@@ -3740,22 +3740,22 @@
         <v>218.5735968797241</v>
       </c>
       <c r="C41" t="n">
-        <v>206.5849138374059</v>
+        <v>206.5849138374058</v>
       </c>
       <c r="D41" t="n">
-        <v>197.5662178819339</v>
+        <v>197.5662178819338</v>
       </c>
       <c r="E41" t="n">
         <v>219.3083554518394</v>
       </c>
       <c r="F41" t="n">
-        <v>238.4801715398166</v>
+        <v>238.4801715398165</v>
       </c>
       <c r="G41" t="n">
-        <v>239.8066515766649</v>
+        <v>239.8066515766648</v>
       </c>
       <c r="H41" t="n">
-        <v>151.7492882384434</v>
+        <v>151.7492882384433</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352052</v>
+        <v>47.92963570352049</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118516</v>
+        <v>80.75843265118513</v>
       </c>
       <c r="V41" t="n">
-        <v>162.0799741199033</v>
+        <v>162.0799741199032</v>
       </c>
       <c r="W41" t="n">
-        <v>187.3800735978602</v>
+        <v>187.3800735978601</v>
       </c>
       <c r="X41" t="n">
-        <v>206.6803318306068</v>
+        <v>206.6803318306067</v>
       </c>
       <c r="Y41" t="n">
         <v>218.0769296268055</v>
@@ -3828,7 +3828,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>57.01820680947971</v>
       </c>
       <c r="G42" t="n">
         <v>127.1165548494722</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S42" t="n">
         <v>145.2410726443114</v>
@@ -3873,7 +3873,7 @@
         <v>185.4896446502776</v>
       </c>
       <c r="U42" t="n">
-        <v>139.9598319986156</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442121</v>
+        <v>10.19030775442118</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>63.67640247355362</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,13 +3913,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>155.3589542808002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314779</v>
+        <v>35.29973040314777</v>
       </c>
       <c r="T43" t="n">
-        <v>58.1546877905208</v>
+        <v>58.15468779052078</v>
       </c>
       <c r="U43" t="n">
         <v>112.7739834647762</v>
       </c>
       <c r="V43" t="n">
-        <v>86.5984441540468</v>
+        <v>86.59844415404677</v>
       </c>
       <c r="W43" t="n">
-        <v>111.7653302246601</v>
+        <v>111.76533022466</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046318</v>
+        <v>57.41043222046315</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.23868251033002</v>
+        <v>48.28529997653084</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352058</v>
+        <v>47.92963570352055</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118522</v>
+        <v>80.75843265118519</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4074,7 +4074,7 @@
         <v>95.80294554235505</v>
       </c>
       <c r="I45" t="n">
-        <v>19.22083731954538</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
-        <v>185.4896446502776</v>
+        <v>148.1900107440684</v>
       </c>
       <c r="U45" t="n">
         <v>216.28848525876</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442127</v>
+        <v>10.19030775442124</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.99607673158744</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314785</v>
+        <v>35.29973040314783</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052086</v>
+        <v>58.15468779052083</v>
       </c>
       <c r="U46" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647762</v>
       </c>
       <c r="V46" t="n">
-        <v>86.59844415404686</v>
+        <v>86.59844415404683</v>
       </c>
       <c r="W46" t="n">
-        <v>111.7653302246601</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046324</v>
+        <v>115.406508952051</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653092</v>
+        <v>48.28529997653089</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>715.3153394643116</v>
+        <v>966.1143126607572</v>
       </c>
       <c r="C11" t="n">
-        <v>715.3153394643116</v>
+        <v>734.6808102602481</v>
       </c>
       <c r="D11" t="n">
-        <v>715.3153394643116</v>
+        <v>734.6808102602481</v>
       </c>
       <c r="E11" t="n">
-        <v>471.0298758371021</v>
+        <v>734.6808102602481</v>
       </c>
       <c r="F11" t="n">
         <v>471.0298758371021</v>
       </c>
       <c r="G11" t="n">
-        <v>206.0390625888568</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J11" t="n">
-        <v>29.99508099538058</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K11" t="n">
-        <v>346.5492874464849</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L11" t="n">
-        <v>717.7384147643195</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M11" t="n">
-        <v>717.7384147643195</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="N11" t="n">
-        <v>717.7384147643195</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O11" t="n">
-        <v>1025.909615366598</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P11" t="n">
-        <v>1340.450796129694</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507314</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
-        <v>1405.816531807699</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U11" t="n">
-        <v>1301.480485150847</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V11" t="n">
-        <v>1301.480485150847</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="W11" t="n">
-        <v>1089.445811275132</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="X11" t="n">
-        <v>1089.445811275132</v>
+        <v>1069.950600939023</v>
       </c>
       <c r="Y11" t="n">
-        <v>846.4042121176534</v>
+        <v>1069.950600939023</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>612.2591987574682</v>
+        <v>574.3360527703275</v>
       </c>
       <c r="C12" t="n">
-        <v>450.5555259984229</v>
+        <v>412.6323800112822</v>
       </c>
       <c r="D12" t="n">
-        <v>311.716888988635</v>
+        <v>273.7937430014942</v>
       </c>
       <c r="E12" t="n">
-        <v>164.6888790455062</v>
+        <v>126.7657330583655</v>
       </c>
       <c r="F12" t="n">
-        <v>29.99508099538058</v>
+        <v>126.7657330583655</v>
       </c>
       <c r="G12" t="n">
-        <v>29.99508099538058</v>
+        <v>126.7657330583655</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J12" t="n">
-        <v>29.99508099538058</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>311.3868694948438</v>
+        <v>402.007545711735</v>
       </c>
       <c r="L12" t="n">
-        <v>682.5759968126785</v>
+        <v>773.1966730295693</v>
       </c>
       <c r="M12" t="n">
-        <v>937.4824596098538</v>
+        <v>773.1966730295693</v>
       </c>
       <c r="N12" t="n">
-        <v>937.4824596098538</v>
+        <v>773.1966730295693</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098538</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305524</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S12" t="n">
-        <v>1460.330797896367</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T12" t="n">
-        <v>1423.467776738528</v>
+        <v>1360.877749975611</v>
       </c>
       <c r="U12" t="n">
-        <v>1355.494815572121</v>
+        <v>1292.904788809204</v>
       </c>
       <c r="V12" t="n">
-        <v>1252.932568511362</v>
+        <v>1215.009422524221</v>
       </c>
       <c r="W12" t="n">
-        <v>1011.616699744672</v>
+        <v>1124.193810024215</v>
       </c>
       <c r="X12" t="n">
-        <v>813.6997116224667</v>
+        <v>926.2768219020096</v>
       </c>
       <c r="Y12" t="n">
-        <v>621.1783852720455</v>
+        <v>733.7554955515884</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853125</v>
+        <v>79.74412711853086</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689514</v>
+        <v>60.62841384689483</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134147</v>
+        <v>58.05677694134116</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934384</v>
+        <v>56.54801896934362</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180456</v>
+        <v>54.56762026180434</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596987</v>
+        <v>36.42306137596984</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K13" t="n">
-        <v>94.90588907899627</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L13" t="n">
-        <v>235.5746640210048</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M13" t="n">
-        <v>395.8076110331839</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729189</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O13" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P13" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="S13" t="n">
-        <v>729.1565113196472</v>
+        <v>729.1565113196473</v>
       </c>
       <c r="T13" t="n">
-        <v>647.6525301786188</v>
+        <v>647.6525301786181</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060184</v>
+        <v>510.9775433060179</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311247</v>
+        <v>400.7424951311242</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152074</v>
+        <v>265.0863499152069</v>
       </c>
       <c r="X13" t="n">
-        <v>184.3341420772668</v>
+        <v>184.3341420772663</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362274</v>
+        <v>112.799239536227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>991.6886899523379</v>
+        <v>715.3153394643116</v>
       </c>
       <c r="C14" t="n">
-        <v>760.2551875518288</v>
+        <v>715.3153394643116</v>
       </c>
       <c r="D14" t="n">
-        <v>537.9314790457361</v>
+        <v>715.3153394643116</v>
       </c>
       <c r="E14" t="n">
-        <v>293.6460154185266</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="F14" t="n">
-        <v>29.99508099538058</v>
+        <v>471.0298758371021</v>
       </c>
       <c r="G14" t="n">
-        <v>29.99508099538058</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J14" t="n">
-        <v>152.9789828377825</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K14" t="n">
-        <v>469.5331892888868</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L14" t="n">
-        <v>840.7223166067214</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="M14" t="n">
-        <v>1211.911443924556</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="N14" t="n">
-        <v>1499.754049769029</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="O14" t="n">
-        <v>1499.754049769029</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507314</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.816531807699</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U14" t="n">
-        <v>1405.816531807699</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V14" t="n">
-        <v>1219.337513970324</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="W14" t="n">
-        <v>1007.302840094609</v>
+        <v>1190.38850692747</v>
       </c>
       <c r="X14" t="n">
-        <v>1007.302840094609</v>
+        <v>958.8586227156469</v>
       </c>
       <c r="Y14" t="n">
-        <v>991.6886899523379</v>
+        <v>958.8586227156469</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>477.5654007073426</v>
+        <v>320.0993142084382</v>
       </c>
       <c r="C15" t="n">
-        <v>315.8617279482973</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="D15" t="n">
-        <v>177.0230909385094</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="E15" t="n">
-        <v>29.99508099538058</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="F15" t="n">
-        <v>29.99508099538058</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G15" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H15" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6157572122718</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K15" t="n">
-        <v>402.007545711735</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L15" t="n">
-        <v>773.1966730295696</v>
+        <v>682.5759968126781</v>
       </c>
       <c r="M15" t="n">
-        <v>929.7651379876891</v>
+        <v>1053.765124130513</v>
       </c>
       <c r="N15" t="n">
-        <v>929.7651379876891</v>
+        <v>1128.564922451193</v>
       </c>
       <c r="O15" t="n">
-        <v>1300.954265305524</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305524</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S15" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T15" t="n">
-        <v>1414.60735417931</v>
+        <v>1312.390772344505</v>
       </c>
       <c r="U15" t="n">
-        <v>1196.134136746219</v>
+        <v>1093.917554911414</v>
       </c>
       <c r="V15" t="n">
-        <v>1118.238770461237</v>
+        <v>865.521932359748</v>
       </c>
       <c r="W15" t="n">
-        <v>1027.42315796123</v>
+        <v>719.456815195642</v>
       </c>
       <c r="X15" t="n">
-        <v>829.5061698390247</v>
+        <v>672.0400833401202</v>
       </c>
       <c r="Y15" t="n">
-        <v>636.9848434886035</v>
+        <v>479.5187569896991</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853078</v>
+        <v>79.74412711853094</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689474</v>
+        <v>60.62841384689486</v>
       </c>
       <c r="D16" t="n">
-        <v>58.05677694134113</v>
+        <v>58.05677694134122</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934363</v>
+        <v>56.54801896934369</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180441</v>
+        <v>54.56762026180444</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596983</v>
+        <v>36.42306137596984</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899625</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L16" t="n">
-        <v>235.5746640210048</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M16" t="n">
-        <v>395.8076110331839</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729189</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O16" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178756</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196471</v>
+        <v>729.1565113196475</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786179</v>
+        <v>647.6525301786183</v>
       </c>
       <c r="U16" t="n">
-        <v>510.9775433060177</v>
+        <v>510.9775433060181</v>
       </c>
       <c r="V16" t="n">
-        <v>400.742495131124</v>
+        <v>400.7424951311243</v>
       </c>
       <c r="W16" t="n">
-        <v>265.0863499152068</v>
+        <v>265.0863499152071</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772662</v>
+        <v>184.3341420772664</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362269</v>
+        <v>112.7992395362271</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862547</v>
+        <v>855.7565147862545</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537131</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155878</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563456</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F17" t="n">
-        <v>278.7075525011671</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
         <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J17" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K17" t="n">
-        <v>346.5492874464849</v>
+        <v>346.5492874464848</v>
       </c>
       <c r="L17" t="n">
-        <v>346.5492874464849</v>
+        <v>346.5492874464848</v>
       </c>
       <c r="M17" t="n">
-        <v>717.7384147643195</v>
+        <v>346.5492874464848</v>
       </c>
       <c r="N17" t="n">
-        <v>814.023741688098</v>
+        <v>717.738414764319</v>
       </c>
       <c r="O17" t="n">
-        <v>1185.212869005933</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P17" t="n">
-        <v>1499.754049769029</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
         <v>1491.579164780145</v>
@@ -5555,7 +5555,7 @@
         <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859134</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
         <v>1003.138636369623</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>636.0474715289552</v>
+        <v>468.5532919636839</v>
       </c>
       <c r="C18" t="n">
-        <v>636.0474715289552</v>
+        <v>468.5532919636839</v>
       </c>
       <c r="D18" t="n">
-        <v>497.2088345191672</v>
+        <v>468.5532919636839</v>
       </c>
       <c r="E18" t="n">
-        <v>350.1808245760384</v>
+        <v>321.5252820205552</v>
       </c>
       <c r="F18" t="n">
         <v>215.4870265259127</v>
@@ -5589,55 +5589,55 @@
         <v>87.08646607190045</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6157572122718</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K18" t="n">
-        <v>402.007545711735</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L18" t="n">
-        <v>566.2933322920192</v>
+        <v>393.9039894376891</v>
       </c>
       <c r="M18" t="n">
-        <v>566.2933322920192</v>
+        <v>765.0931167555234</v>
       </c>
       <c r="N18" t="n">
-        <v>566.2933322920192</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098538</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="P18" t="n">
-        <v>1300.954265305524</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S18" t="n">
-        <v>1460.330797896367</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T18" t="n">
-        <v>1460.330797896367</v>
+        <v>1126.25936628567</v>
       </c>
       <c r="U18" t="n">
-        <v>1267.801654768272</v>
+        <v>907.7861488525793</v>
       </c>
       <c r="V18" t="n">
-        <v>1267.801654768272</v>
+        <v>907.7861488525793</v>
       </c>
       <c r="W18" t="n">
-        <v>1026.485786001582</v>
+        <v>666.4702800858894</v>
       </c>
       <c r="X18" t="n">
-        <v>828.5687978793763</v>
+        <v>468.5532919636839</v>
       </c>
       <c r="Y18" t="n">
-        <v>636.0474715289552</v>
+        <v>468.5532919636839</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.976570138311</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="C19" t="n">
-        <v>677.976570138311</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="D19" t="n">
-        <v>532.0324284314196</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="E19" t="n">
-        <v>380.0234141927384</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F19" t="n">
-        <v>227.5427592185155</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G19" t="n">
-        <v>227.5427592185155</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H19" t="n">
-        <v>70.6145225712426</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I19" t="n">
-        <v>70.6145225712426</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K19" t="n">
-        <v>94.90588907899625</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L19" t="n">
-        <v>235.5746640210048</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8076110331839</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729189</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O19" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P19" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="R19" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S19" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="T19" t="n">
-        <v>772.0592653978199</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="U19" t="n">
-        <v>731.5454401931871</v>
+        <v>747.0608517132423</v>
       </c>
       <c r="V19" t="n">
-        <v>717.4715536862608</v>
+        <v>547.4039465826056</v>
       </c>
       <c r="W19" t="n">
-        <v>677.976570138311</v>
+        <v>261.2475451000048</v>
       </c>
       <c r="X19" t="n">
-        <v>677.976570138311</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.976570138311</v>
+        <v>29.99508099538055</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862545</v>
+        <v>855.7565147862539</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537128</v>
+        <v>720.4841740537122</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155871</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563455</v>
+        <v>446.1973252563453</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011673</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208893</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J20" t="n">
-        <v>152.9789828377825</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K20" t="n">
-        <v>283.531360730929</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="L20" t="n">
-        <v>654.7204880487636</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="M20" t="n">
-        <v>654.7204880487636</v>
+        <v>469.5331892888867</v>
       </c>
       <c r="N20" t="n">
-        <v>654.7204880487636</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="O20" t="n">
-        <v>1025.909615366598</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P20" t="n">
-        <v>1340.450796129694</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.579164780145</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610737</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X20" t="n">
         <v>1150.019073859133</v>
       </c>
       <c r="Y20" t="n">
-        <v>1003.138636369623</v>
+        <v>1003.138636369622</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>222.2883318910327</v>
+        <v>663.0573462378748</v>
       </c>
       <c r="C21" t="n">
-        <v>60.58465913198737</v>
+        <v>501.3536734788295</v>
       </c>
       <c r="D21" t="n">
-        <v>60.58465913198737</v>
+        <v>362.5150364690415</v>
       </c>
       <c r="E21" t="n">
-        <v>60.58465913198737</v>
+        <v>215.4870265259127</v>
       </c>
       <c r="F21" t="n">
-        <v>60.58465913198737</v>
+        <v>215.4870265259127</v>
       </c>
       <c r="G21" t="n">
-        <v>60.58465913198737</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="H21" t="n">
-        <v>60.58465913198737</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6157572122718</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K21" t="n">
-        <v>402.007545711735</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="L21" t="n">
-        <v>566.2933322920192</v>
+        <v>401.1842083132149</v>
       </c>
       <c r="M21" t="n">
-        <v>566.2933322920192</v>
+        <v>772.3733356310493</v>
       </c>
       <c r="N21" t="n">
-        <v>566.2933322920192</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="O21" t="n">
-        <v>937.4824596098538</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P21" t="n">
-        <v>1300.954265305524</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769029</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S21" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="T21" t="n">
-        <v>1460.330797896367</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="U21" t="n">
-        <v>1241.857580463276</v>
+        <v>1256.313984136247</v>
       </c>
       <c r="V21" t="n">
-        <v>1013.46195791161</v>
+        <v>1256.313984136247</v>
       </c>
       <c r="W21" t="n">
-        <v>772.1460891449202</v>
+        <v>1014.998115369557</v>
       </c>
       <c r="X21" t="n">
-        <v>574.2291010227148</v>
+        <v>1014.998115369557</v>
       </c>
       <c r="Y21" t="n">
-        <v>381.7077746722936</v>
+        <v>822.4767890191356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="C22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="D22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="E22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="F22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="G22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="H22" t="n">
-        <v>206.5495674174563</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="I22" t="n">
-        <v>70.6145225712426</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538058</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K22" t="n">
-        <v>94.90588907899625</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L22" t="n">
-        <v>235.5746640210048</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M22" t="n">
-        <v>395.8076110331839</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729189</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O22" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P22" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q22" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R22" t="n">
-        <v>634.8994930145496</v>
+        <v>634.8994930145494</v>
       </c>
       <c r="S22" t="n">
-        <v>457.560499324238</v>
+        <v>425.9810711496377</v>
       </c>
       <c r="T22" t="n">
-        <v>457.560499324238</v>
+        <v>425.9810711496377</v>
       </c>
       <c r="U22" t="n">
-        <v>417.0466741196053</v>
+        <v>370.8448105607697</v>
       </c>
       <c r="V22" t="n">
-        <v>402.972787612679</v>
+        <v>356.7709240538435</v>
       </c>
       <c r="W22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="X22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="Y22" t="n">
-        <v>363.4778040647292</v>
+        <v>70.61452257124262</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862543</v>
+        <v>855.7565147862539</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537126</v>
+        <v>720.4841740537124</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155876</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563453</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011667</v>
+        <v>278.7075525011671</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208893</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H23" t="n">
         <v>29.99508099538055</v>
@@ -5987,25 +5987,25 @@
         <v>29.99508099538055</v>
       </c>
       <c r="J23" t="n">
-        <v>29.99508099538055</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="K23" t="n">
-        <v>346.5492874464848</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="L23" t="n">
-        <v>346.5492874464848</v>
+        <v>152.9789828377824</v>
       </c>
       <c r="M23" t="n">
-        <v>717.7384147643191</v>
+        <v>283.5313607309284</v>
       </c>
       <c r="N23" t="n">
-        <v>1088.927542082153</v>
+        <v>654.7204880487627</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.116669399988</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P23" t="n">
-        <v>1499.754049769028</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q23" t="n">
         <v>1499.754049769028</v>
@@ -6026,7 +6026,7 @@
         <v>1401.261308610736</v>
       </c>
       <c r="W23" t="n">
-        <v>1285.387796402989</v>
+        <v>1285.387796402988</v>
       </c>
       <c r="X23" t="n">
         <v>1150.019073859133</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>480.184801196784</v>
+        <v>894.5217963509853</v>
       </c>
       <c r="C24" t="n">
-        <v>318.4811284377387</v>
+        <v>732.81812359194</v>
       </c>
       <c r="D24" t="n">
-        <v>318.4811284377387</v>
+        <v>593.979486582152</v>
       </c>
       <c r="E24" t="n">
-        <v>293.0894394995185</v>
+        <v>446.9514766390233</v>
       </c>
       <c r="F24" t="n">
-        <v>158.3956414493929</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="G24" t="n">
-        <v>29.99508099538055</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H24" t="n">
-        <v>29.99508099538055</v>
+        <v>87.08646607190045</v>
       </c>
       <c r="I24" t="n">
         <v>29.99508099538055</v>
@@ -6072,10 +6072,10 @@
         <v>120.6157572122717</v>
       </c>
       <c r="L24" t="n">
+        <v>120.6157572122717</v>
+      </c>
+      <c r="M24" t="n">
         <v>491.8048845301061</v>
-      </c>
-      <c r="M24" t="n">
-        <v>862.9940118479403</v>
       </c>
       <c r="N24" t="n">
         <v>862.9940118479403</v>
@@ -6102,16 +6102,16 @@
         <v>1499.754049769028</v>
       </c>
       <c r="V24" t="n">
-        <v>1271.358427217362</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="W24" t="n">
-        <v>1030.042558450672</v>
+        <v>1444.379553604873</v>
       </c>
       <c r="X24" t="n">
-        <v>832.1255703284661</v>
+        <v>1246.462565482667</v>
       </c>
       <c r="Y24" t="n">
-        <v>639.6042439780449</v>
+        <v>1053.941239132246</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="C25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="D25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="E25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="F25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="G25" t="n">
-        <v>29.99508099538055</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="H25" t="n">
-        <v>29.99508099538055</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="I25" t="n">
-        <v>29.99508099538055</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="J25" t="n">
         <v>29.99508099538055</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899624</v>
+        <v>94.90588907899621</v>
       </c>
       <c r="L25" t="n">
-        <v>235.5746640210048</v>
+        <v>235.5746640210047</v>
       </c>
       <c r="M25" t="n">
-        <v>395.8076110331839</v>
+        <v>395.8076110331838</v>
       </c>
       <c r="N25" t="n">
-        <v>555.4650341729189</v>
+        <v>555.4650341729188</v>
       </c>
       <c r="O25" t="n">
-        <v>692.0159524237213</v>
+        <v>692.0159524237212</v>
       </c>
       <c r="P25" t="n">
-        <v>787.5746769178753</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="R25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="S25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="T25" t="n">
-        <v>772.0592653978199</v>
+        <v>772.0592653978197</v>
       </c>
       <c r="U25" t="n">
-        <v>484.884022258536</v>
+        <v>484.8840222585358</v>
       </c>
       <c r="V25" t="n">
-        <v>469.3873438004728</v>
+        <v>224.1487178169584</v>
       </c>
       <c r="W25" t="n">
-        <v>429.892360252523</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="X25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.6398961478988</v>
+        <v>70.61452257124262</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D26" t="n">
         <v>1259.695398890399</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916624</v>
+        <v>967.0503862916619</v>
       </c>
       <c r="F26" t="n">
-        <v>655.0399028969891</v>
+        <v>655.0399028969886</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772164</v>
+        <v>341.689540677216</v>
       </c>
       <c r="H26" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J26" t="n">
         <v>293.3310115116683</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827554</v>
+        <v>709.9933251827551</v>
       </c>
       <c r="L26" t="n">
         <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1851.613370049065</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N26" t="n">
-        <v>2337.132696919369</v>
+        <v>2282.553723882485</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.880974437192</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.530262420271</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279588</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464183</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S26" t="n">
-        <v>3440.828701230941</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T26" t="n">
         <v>3321.293506559799</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.59791093142</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V26" t="n">
         <v>2933.759344122517</v>
       </c>
       <c r="W26" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X26" t="n">
         <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J27" t="n">
-        <v>70.23900244928366</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="K27" t="n">
-        <v>117.2170367589562</v>
+        <v>442.251467165638</v>
       </c>
       <c r="L27" t="n">
-        <v>552.8264986597611</v>
+        <v>877.8609290664428</v>
       </c>
       <c r="M27" t="n">
-        <v>1119.298709225475</v>
+        <v>1444.333139632157</v>
       </c>
       <c r="N27" t="n">
-        <v>1714.158656621462</v>
+        <v>2039.193087028143</v>
       </c>
       <c r="O27" t="n">
-        <v>2182.83106159791</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="P27" t="n">
-        <v>2546.30286729358</v>
+        <v>2347.503082830075</v>
       </c>
       <c r="Q27" t="n">
         <v>2546.30286729358</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526553</v>
+        <v>443.9396799526552</v>
       </c>
       <c r="C28" t="n">
-        <v>376.464417709492</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D28" t="n">
-        <v>325.533231832411</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888862</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098196</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524577</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H28" t="n">
         <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J28" t="n">
-        <v>130.535994980764</v>
+        <v>130.5359949807639</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843623</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463537</v>
+        <v>536.3317924463536</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785155</v>
+        <v>796.6728466785156</v>
       </c>
       <c r="N28" t="n">
         <v>1056.438377038233</v>
@@ -6415,19 +6415,19 @@
         <v>1302.005376841906</v>
       </c>
       <c r="U28" t="n">
-        <v>1116.970840997779</v>
+        <v>1116.970840997778</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513578</v>
+        <v>958.3762438513571</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639133</v>
+        <v>774.3605496639126</v>
       </c>
       <c r="X28" t="n">
-        <v>645.2487928544454</v>
+        <v>645.2487928544447</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418788</v>
+        <v>525.3543413418787</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740056</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.37865636802</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.6953988904</v>
+        <v>1259.695398890398</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916631</v>
+        <v>967.0503862916615</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969895</v>
+        <v>655.0399028969882</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772169</v>
+        <v>341.6895406772155</v>
       </c>
       <c r="H29" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J29" t="n">
         <v>293.3310115116683</v>
       </c>
       <c r="K29" t="n">
-        <v>709.9933251827554</v>
+        <v>709.9933251827551</v>
       </c>
       <c r="L29" t="n">
         <v>1252.784924042173</v>
@@ -6473,40 +6473,40 @@
         <v>1851.613370049065</v>
       </c>
       <c r="N29" t="n">
-        <v>2437.240804139352</v>
+        <v>2431.670330287063</v>
       </c>
       <c r="O29" t="n">
-        <v>2843.459947474075</v>
+        <v>2937.997580841769</v>
       </c>
       <c r="P29" t="n">
-        <v>3203.530262420271</v>
+        <v>3352.646868824848</v>
       </c>
       <c r="Q29" t="n">
-        <v>3462.941623279588</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464183</v>
+        <v>3511.950122464182</v>
       </c>
       <c r="S29" t="n">
-        <v>3440.828701230941</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559799</v>
+        <v>3321.293506559798</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.59791093142</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122518</v>
+        <v>2933.759344122516</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275275</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.475688091925</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962919</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J30" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="K30" t="n">
-        <v>442.2514671656381</v>
+        <v>117.2170367589562</v>
       </c>
       <c r="L30" t="n">
-        <v>442.2514671656381</v>
+        <v>552.8264986597611</v>
       </c>
       <c r="M30" t="n">
-        <v>920.4989247619702</v>
+        <v>1119.298709225475</v>
       </c>
       <c r="N30" t="n">
-        <v>1515.358872157957</v>
+        <v>1714.158656621462</v>
       </c>
       <c r="O30" t="n">
-        <v>1984.031277134405</v>
+        <v>2182.83106159791</v>
       </c>
       <c r="P30" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q30" t="n">
         <v>2546.30286729358</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>443.9396799526548</v>
+        <v>443.9396799526552</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094915</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324106</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888858</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098193</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524574</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H31" t="n">
-        <v>104.033340000341</v>
+        <v>104.0333400003411</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928366</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J31" t="n">
         <v>130.5359949807641</v>
@@ -6640,7 +6640,7 @@
         <v>1488.764234223155</v>
       </c>
       <c r="Q31" t="n">
-        <v>1573.665686612332</v>
+        <v>1573.665686612331</v>
       </c>
       <c r="R31" t="n">
         <v>1538.646621524218</v>
@@ -6664,7 +6664,7 @@
         <v>645.2487928544449</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418787</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1259.695398890399</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916619</v>
+        <v>967.0503862916626</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969886</v>
+        <v>655.0399028969894</v>
       </c>
       <c r="G32" t="n">
-        <v>341.689540677216</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122128</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J32" t="n">
         <v>293.3310115116683</v>
@@ -6704,10 +6704,10 @@
         <v>709.9933251827554</v>
       </c>
       <c r="L32" t="n">
-        <v>1152.676816822191</v>
+        <v>1198.205951005288</v>
       </c>
       <c r="M32" t="n">
-        <v>1751.505262829082</v>
+        <v>1797.034397012179</v>
       </c>
       <c r="N32" t="n">
         <v>2282.553723882484</v>
@@ -6725,16 +6725,16 @@
         <v>3511.950122464182</v>
       </c>
       <c r="S32" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.82870123094</v>
       </c>
       <c r="T32" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.597910931419</v>
+        <v>3168.597910931418</v>
       </c>
       <c r="V32" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122516</v>
       </c>
       <c r="W32" t="n">
         <v>2673.365121275274</v>
@@ -6762,10 +6762,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E33" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F33" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G33" t="n">
         <v>224.1010395887884</v>
@@ -6774,28 +6774,28 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J33" t="n">
         <v>160.8596786661748</v>
       </c>
       <c r="K33" t="n">
-        <v>442.2514671656381</v>
+        <v>160.8596786661748</v>
       </c>
       <c r="L33" t="n">
-        <v>877.8609290664431</v>
+        <v>596.4691405669797</v>
       </c>
       <c r="M33" t="n">
-        <v>1444.333139632157</v>
+        <v>1162.941351132694</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.358872157957</v>
+        <v>1757.80129852868</v>
       </c>
       <c r="O33" t="n">
-        <v>1984.031277134405</v>
+        <v>2226.473703505128</v>
       </c>
       <c r="P33" t="n">
-        <v>2347.503082830075</v>
+        <v>2546.30286729358</v>
       </c>
       <c r="Q33" t="n">
         <v>2546.30286729358</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.939679952655</v>
+        <v>443.9396799526547</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094917</v>
+        <v>376.4644177094914</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324108</v>
+        <v>325.5332318324105</v>
       </c>
       <c r="E34" t="n">
-        <v>275.6649248888859</v>
+        <v>275.6649248888858</v>
       </c>
       <c r="F34" t="n">
-        <v>225.3249772098194</v>
+        <v>225.3249772098193</v>
       </c>
       <c r="G34" t="n">
         <v>158.8208693524575</v>
@@ -6853,28 +6853,28 @@
         <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928365</v>
       </c>
       <c r="J34" t="n">
-        <v>130.5359949807638</v>
+        <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843623</v>
+        <v>295.5549102843624</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463536</v>
+        <v>536.3317924463538</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785155</v>
+        <v>796.6728466785157</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038232</v>
       </c>
       <c r="O34" t="n">
-        <v>1293.097402509018</v>
+        <v>1293.097402509017</v>
       </c>
       <c r="P34" t="n">
-        <v>1488.764234223155</v>
+        <v>1488.764234223154</v>
       </c>
       <c r="Q34" t="n">
         <v>1573.665686612331</v>
@@ -6886,22 +6886,22 @@
         <v>1431.868906954462</v>
       </c>
       <c r="T34" t="n">
-        <v>1302.005376841906</v>
+        <v>1302.005376841905</v>
       </c>
       <c r="U34" t="n">
         <v>1116.970840997778</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513572</v>
+        <v>958.376243851357</v>
       </c>
       <c r="W34" t="n">
-        <v>774.3605496639127</v>
+        <v>774.3605496639125</v>
       </c>
       <c r="X34" t="n">
-        <v>645.248792854445</v>
+        <v>645.2487928544447</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418785</v>
+        <v>525.3543413418781</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597501</v>
       </c>
       <c r="C35" t="n">
         <v>1106.443993458708</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143301</v>
+        <v>906.8821572143305</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488357</v>
+        <v>685.3585658488362</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4695036874048</v>
+        <v>444.4695036874053</v>
       </c>
       <c r="G35" t="n">
         <v>202.2405627008748</v>
@@ -6935,22 +6935,22 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J35" t="n">
-        <v>48.95845336911378</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K35" t="n">
-        <v>300.2391870612205</v>
+        <v>488.4965616626199</v>
       </c>
       <c r="L35" t="n">
-        <v>742.9226787006558</v>
+        <v>931.1800533020551</v>
       </c>
       <c r="M35" t="n">
-        <v>1241.643017487565</v>
+        <v>1429.900392088964</v>
       </c>
       <c r="N35" t="n">
-        <v>1727.162344357869</v>
+        <v>1915.419718959268</v>
       </c>
       <c r="O35" t="n">
-        <v>2133.381487692593</v>
+        <v>2321.638862293991</v>
       </c>
       <c r="P35" t="n">
         <v>2447.922668455689</v>
@@ -6965,7 +6965,7 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U35" t="n">
         <v>2317.934720622653</v>
@@ -6980,7 +6980,7 @@
         <v>1756.176761482885</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587121</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189669971</v>
       </c>
       <c r="C36" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079518</v>
       </c>
       <c r="D36" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981639</v>
       </c>
       <c r="E36" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550351</v>
       </c>
       <c r="F36" t="n">
-        <v>331.2210509626308</v>
+        <v>254.1214012049095</v>
       </c>
       <c r="G36" t="n">
-        <v>202.8204905086185</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H36" t="n">
         <v>106.0498384456337</v>
@@ -7014,19 +7014,19 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J36" t="n">
-        <v>48.95845336911378</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K36" t="n">
-        <v>48.95845336911378</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="L36" t="n">
-        <v>484.5679152699187</v>
+        <v>575.1885914868099</v>
       </c>
       <c r="M36" t="n">
-        <v>1051.040125835633</v>
+        <v>822.1187259240793</v>
       </c>
       <c r="N36" t="n">
-        <v>1645.900073231619</v>
+        <v>1416.978673320066</v>
       </c>
       <c r="O36" t="n">
         <v>1885.651078296514</v>
@@ -7038,28 +7038,28 @@
         <v>2447.922668455689</v>
       </c>
       <c r="R36" t="n">
-        <v>2408.499416583027</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S36" t="n">
-        <v>2338.890912154576</v>
+        <v>2261.791262396855</v>
       </c>
       <c r="T36" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972332</v>
       </c>
       <c r="U36" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.954767539241</v>
       </c>
       <c r="V36" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987575</v>
       </c>
       <c r="W36" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X36" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y36" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482581</v>
       </c>
     </row>
     <row r="37">
@@ -7096,13 +7096,13 @@
         <v>48.95845336911378</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L37" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M37" t="n">
-        <v>414.7709834069171</v>
+        <v>414.770983406917</v>
       </c>
       <c r="N37" t="n">
         <v>574.428406546652</v>
@@ -7111,34 +7111,34 @@
         <v>710.9793247974544</v>
       </c>
       <c r="P37" t="n">
-        <v>806.5380492916084</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.022637771553</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="R37" t="n">
-        <v>747.956153603136</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="S37" t="n">
-        <v>539.0377317382242</v>
+        <v>770.8817559550954</v>
       </c>
       <c r="T37" t="n">
-        <v>480.2956228589103</v>
+        <v>712.1396470757815</v>
       </c>
       <c r="U37" t="n">
-        <v>366.3825082480252</v>
+        <v>539.644636776424</v>
       </c>
       <c r="V37" t="n">
         <v>278.9093323348466</v>
       </c>
       <c r="W37" t="n">
-        <v>166.0150593806444</v>
+        <v>166.0150593806445</v>
       </c>
       <c r="X37" t="n">
         <v>108.024723804419</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.25169352509483</v>
+        <v>59.25169352509484</v>
       </c>
     </row>
     <row r="38">
@@ -7157,52 +7157,52 @@
         <v>906.8821572143308</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488366</v>
+        <v>685.3585658488362</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874059</v>
+        <v>444.4695036874052</v>
       </c>
       <c r="G38" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
-        <v>48.9584533691138</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="K38" t="n">
-        <v>365.5126598202181</v>
+        <v>488.4965616626199</v>
       </c>
       <c r="L38" t="n">
-        <v>808.1961514596533</v>
+        <v>931.1800533020551</v>
       </c>
       <c r="M38" t="n">
-        <v>1241.643017487566</v>
+        <v>1082.339763848231</v>
       </c>
       <c r="N38" t="n">
-        <v>1727.16234435787</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O38" t="n">
-        <v>2133.381487692594</v>
+        <v>1974.078234053259</v>
       </c>
       <c r="P38" t="n">
-        <v>2447.92266845569</v>
+        <v>2288.619414816355</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S38" t="n">
         <v>2447.92266845569</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U38" t="n">
         <v>2317.934720622654</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.385518966998</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079527</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D39" t="n">
-        <v>535.8432091981648</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E39" t="n">
-        <v>388.815199255036</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F39" t="n">
-        <v>254.1214012049104</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G39" t="n">
         <v>202.8204905086186</v>
@@ -7248,55 +7248,55 @@
         <v>106.0498384456337</v>
       </c>
       <c r="I39" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
-        <v>105.1174755238119</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K39" t="n">
-        <v>386.5092640232751</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="L39" t="n">
-        <v>822.1187259240801</v>
+        <v>575.1885914868099</v>
       </c>
       <c r="M39" t="n">
-        <v>822.1187259240801</v>
+        <v>1141.660802052524</v>
       </c>
       <c r="N39" t="n">
-        <v>1416.978673320066</v>
+        <v>1615.778457783571</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296515</v>
+        <v>2084.450862760019</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992185</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583029</v>
+        <v>2408.499416583028</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396855</v>
+        <v>2338.890912154576</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972333</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.954767539242</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987576</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220885</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.32628809868</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.804961748259</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="40">
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L40" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M40" t="n">
-        <v>414.7709834069171</v>
+        <v>414.770983406917</v>
       </c>
       <c r="N40" t="n">
-        <v>574.4284065466521</v>
+        <v>574.428406546652</v>
       </c>
       <c r="O40" t="n">
-        <v>710.9793247974545</v>
+        <v>710.9793247974544</v>
       </c>
       <c r="P40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916086</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="S40" t="n">
         <v>712.299860266623</v>
@@ -7375,7 +7375,7 @@
         <v>108.024723804419</v>
       </c>
       <c r="Y40" t="n">
-        <v>59.25169352509486</v>
+        <v>59.25169352509484</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143303</v>
+        <v>906.8821572143305</v>
       </c>
       <c r="E41" t="n">
-        <v>685.358565848836</v>
+        <v>685.3585658488362</v>
       </c>
       <c r="F41" t="n">
-        <v>444.4695036874052</v>
+        <v>444.4695036874054</v>
       </c>
       <c r="G41" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008747</v>
       </c>
       <c r="H41" t="n">
         <v>48.95845336911378</v>
@@ -7412,19 +7412,19 @@
         <v>171.9423552115157</v>
       </c>
       <c r="K41" t="n">
-        <v>488.49656166262</v>
+        <v>488.4965616626199</v>
       </c>
       <c r="L41" t="n">
-        <v>931.1800533020553</v>
+        <v>931.1800533020551</v>
       </c>
       <c r="M41" t="n">
-        <v>1429.900392088964</v>
+        <v>1396.880944611326</v>
       </c>
       <c r="N41" t="n">
-        <v>1915.419718959268</v>
+        <v>1882.400271481631</v>
       </c>
       <c r="O41" t="n">
-        <v>1974.078234053258</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="P41" t="n">
         <v>2288.619414816354</v>
@@ -7439,7 +7439,7 @@
         <v>2447.922668455689</v>
       </c>
       <c r="T41" t="n">
-        <v>2399.508895017789</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U41" t="n">
         <v>2317.934720622653</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>913.4851687247184</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C42" t="n">
-        <v>751.7814959656731</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D42" t="n">
-        <v>612.9428589558852</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E42" t="n">
-        <v>465.9148490127565</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F42" t="n">
-        <v>331.2210509626308</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G42" t="n">
-        <v>202.8204905086185</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H42" t="n">
         <v>106.0498384456337</v>
@@ -7488,25 +7488,25 @@
         <v>48.95845336911378</v>
       </c>
       <c r="J42" t="n">
-        <v>48.95845336911378</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="K42" t="n">
-        <v>48.95845336911378</v>
+        <v>139.5791295860049</v>
       </c>
       <c r="L42" t="n">
-        <v>454.4462998218697</v>
+        <v>575.1885914868099</v>
       </c>
       <c r="M42" t="n">
-        <v>1020.918510387584</v>
+        <v>1141.660802052524</v>
       </c>
       <c r="N42" t="n">
-        <v>1615.77845778357</v>
+        <v>1416.978673320065</v>
       </c>
       <c r="O42" t="n">
-        <v>2084.450862760019</v>
+        <v>1885.651078296514</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.922668455689</v>
+        <v>2249.122883992184</v>
       </c>
       <c r="Q42" t="n">
         <v>2447.922668455689</v>
@@ -7521,19 +7521,19 @@
         <v>2074.427984972331</v>
       </c>
       <c r="U42" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V42" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W42" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X42" t="n">
-        <v>1265.4259378564</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y42" t="n">
-        <v>1072.904611505979</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.5061315922487</v>
+        <v>265.2870660659299</v>
       </c>
       <c r="C43" t="n">
-        <v>246.5061315922487</v>
+        <v>265.2870660659299</v>
       </c>
       <c r="D43" t="n">
-        <v>246.5061315922487</v>
+        <v>200.967467607795</v>
       </c>
       <c r="E43" t="n">
-        <v>246.5061315922487</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F43" t="n">
-        <v>246.5061315922487</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G43" t="n">
-        <v>246.5061315922487</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H43" t="n">
-        <v>89.57789494497581</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I43" t="n">
-        <v>89.57789494497581</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J43" t="n">
         <v>48.95845336911378</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8692614527295</v>
+        <v>113.8692614527294</v>
       </c>
       <c r="L43" t="n">
-        <v>254.538036394738</v>
+        <v>254.5380363947379</v>
       </c>
       <c r="M43" t="n">
-        <v>414.7709834069171</v>
+        <v>414.770983406917</v>
       </c>
       <c r="N43" t="n">
         <v>574.428406546652</v>
@@ -7585,34 +7585,34 @@
         <v>710.9793247974544</v>
       </c>
       <c r="P43" t="n">
-        <v>806.5380492916084</v>
+        <v>806.5380492916083</v>
       </c>
       <c r="Q43" t="n">
-        <v>806.5380492916084</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="R43" t="n">
-        <v>806.5380492916084</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="S43" t="n">
-        <v>770.8817559550955</v>
+        <v>755.36634443504</v>
       </c>
       <c r="T43" t="n">
-        <v>712.1396470757816</v>
+        <v>696.624235555726</v>
       </c>
       <c r="U43" t="n">
-        <v>598.2265324648965</v>
+        <v>582.711120944841</v>
       </c>
       <c r="V43" t="n">
-        <v>510.753356551718</v>
+        <v>495.2379450316624</v>
       </c>
       <c r="W43" t="n">
-        <v>397.8590835975158</v>
+        <v>382.3436720774604</v>
       </c>
       <c r="X43" t="n">
-        <v>339.8687480212904</v>
+        <v>324.353336501235</v>
       </c>
       <c r="Y43" t="n">
-        <v>256.7993717482298</v>
+        <v>275.5803062219109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1106.443993458708</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143299</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488355</v>
+        <v>685.3585658488358</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874045</v>
+        <v>444.469503687405</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
@@ -7649,22 +7649,22 @@
         <v>48.95845336911378</v>
       </c>
       <c r="K44" t="n">
-        <v>140.9359334218865</v>
+        <v>300.2391870612207</v>
       </c>
       <c r="L44" t="n">
-        <v>583.6194250613216</v>
+        <v>742.9226787006559</v>
       </c>
       <c r="M44" t="n">
-        <v>1082.33976384823</v>
+        <v>1241.643017487565</v>
       </c>
       <c r="N44" t="n">
-        <v>1567.859090718535</v>
+        <v>1727.162344357869</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.078234053258</v>
+        <v>2133.381487692593</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816354</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="Q44" t="n">
         <v>2447.922668455689</v>
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>875.8087708396586</v>
+        <v>913.4851687247186</v>
       </c>
       <c r="C45" t="n">
-        <v>714.1050980806133</v>
+        <v>751.7814959656733</v>
       </c>
       <c r="D45" t="n">
-        <v>575.2664610708254</v>
+        <v>612.9428589558854</v>
       </c>
       <c r="E45" t="n">
-        <v>428.2384511276966</v>
+        <v>465.9148490127566</v>
       </c>
       <c r="F45" t="n">
-        <v>293.544653077571</v>
+        <v>331.2210509626309</v>
       </c>
       <c r="G45" t="n">
-        <v>165.1440926235587</v>
+        <v>202.8204905086186</v>
       </c>
       <c r="H45" t="n">
-        <v>68.37344056057375</v>
+        <v>106.0498384456337</v>
       </c>
       <c r="I45" t="n">
         <v>48.95845336911378</v>
       </c>
       <c r="J45" t="n">
-        <v>48.95845336911378</v>
+        <v>100.9168551172715</v>
       </c>
       <c r="K45" t="n">
-        <v>330.350241868577</v>
+        <v>382.3086436167347</v>
       </c>
       <c r="L45" t="n">
-        <v>765.9597037693818</v>
+        <v>817.9181055175396</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.431914335096</v>
+        <v>1384.390316083254</v>
       </c>
       <c r="N45" t="n">
-        <v>1927.291861731082</v>
+        <v>1979.25026347924</v>
       </c>
       <c r="O45" t="n">
-        <v>2084.450862760019</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="P45" t="n">
         <v>2447.922668455689</v>
@@ -7755,22 +7755,22 @@
         <v>2301.214514269516</v>
       </c>
       <c r="T45" t="n">
-        <v>2113.851236844993</v>
+        <v>2151.527634730053</v>
       </c>
       <c r="U45" t="n">
-        <v>1895.378019411902</v>
+        <v>1933.054417296962</v>
       </c>
       <c r="V45" t="n">
-        <v>1666.982396860236</v>
+        <v>1704.658794745296</v>
       </c>
       <c r="W45" t="n">
-        <v>1425.666528093546</v>
+        <v>1463.342925978606</v>
       </c>
       <c r="X45" t="n">
-        <v>1227.74953997134</v>
+        <v>1265.425937856401</v>
       </c>
       <c r="Y45" t="n">
-        <v>1035.228213620919</v>
+        <v>1072.90461150598</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="C46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="D46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="E46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="F46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="G46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5403490575859</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I46" t="n">
         <v>48.95845336911378</v>
@@ -7831,25 +7831,25 @@
         <v>806.5380492916083</v>
       </c>
       <c r="S46" t="n">
-        <v>770.8817559550953</v>
+        <v>770.8817559550954</v>
       </c>
       <c r="T46" t="n">
-        <v>712.1396470757813</v>
+        <v>712.1396470757815</v>
       </c>
       <c r="U46" t="n">
-        <v>424.9644039364975</v>
+        <v>598.2265324648964</v>
       </c>
       <c r="V46" t="n">
-        <v>337.4912280233189</v>
+        <v>510.7533565517178</v>
       </c>
       <c r="W46" t="n">
-        <v>224.5969550691167</v>
+        <v>224.5969550691169</v>
       </c>
       <c r="X46" t="n">
-        <v>166.6066194928912</v>
+        <v>108.024723804419</v>
       </c>
       <c r="Y46" t="n">
-        <v>117.833589213567</v>
+        <v>59.25169352509483</v>
       </c>
     </row>
   </sheetData>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978071</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M11" t="n">
-        <v>80.60967557410781</v>
+        <v>267.6675531093363</v>
       </c>
       <c r="N11" t="n">
-        <v>78.12743924032236</v>
+        <v>78.12743924032247</v>
       </c>
       <c r="O11" t="n">
-        <v>396.0019096492003</v>
+        <v>84.7178686367976</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,22 +8766,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>417.0214038611936</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M12" t="n">
-        <v>290.7037063411223</v>
+        <v>33.22243078842003</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291329996</v>
+        <v>22.27645291330005</v>
       </c>
       <c r="O12" t="n">
-        <v>38.61454538656787</v>
+        <v>204.5597843565511</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8930,22 +8930,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>470.7430492978071</v>
+        <v>282.8624143907783</v>
       </c>
       <c r="M14" t="n">
-        <v>455.548188016365</v>
+        <v>80.60967557410791</v>
       </c>
       <c r="N14" t="n">
-        <v>368.8775461539314</v>
+        <v>453.0659516825794</v>
       </c>
       <c r="O14" t="n">
-        <v>84.7178686367975</v>
+        <v>84.7178686367976</v>
       </c>
       <c r="P14" t="n">
-        <v>100.6199562157594</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,28 +9003,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>417.0214038611936</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M15" t="n">
-        <v>191.372395392581</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291329996</v>
+        <v>97.83180475237155</v>
       </c>
       <c r="O15" t="n">
-        <v>413.5530578288251</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P15" t="n">
-        <v>46.85836115548398</v>
+        <v>46.85836115548403</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.59943624652226</v>
+        <v>95.5994362465223</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>95.80453685554994</v>
+        <v>95.80453685555003</v>
       </c>
       <c r="M17" t="n">
-        <v>455.548188016365</v>
+        <v>80.60967557410791</v>
       </c>
       <c r="N17" t="n">
-        <v>175.385345223937</v>
+        <v>453.0659516825794</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790547</v>
+        <v>396.0019096491997</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9240,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>208.0281303889203</v>
+        <v>125.4335176238307</v>
       </c>
       <c r="M18" t="n">
-        <v>33.22243078841996</v>
+        <v>408.160943230677</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291329996</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O18" t="n">
-        <v>413.5530578288251</v>
+        <v>38.61454538656794</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,19 +9401,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>233.5084014354861</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>470.7430492978071</v>
+        <v>95.80453685555003</v>
       </c>
       <c r="M20" t="n">
-        <v>80.60967557410781</v>
+        <v>80.60967557410791</v>
       </c>
       <c r="N20" t="n">
-        <v>78.12743924032236</v>
+        <v>265.1853167755508</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790547</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9477,25 +9477,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L21" t="n">
-        <v>208.0281303889203</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M21" t="n">
-        <v>33.22243078841996</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N21" t="n">
-        <v>22.27645291329996</v>
+        <v>181.2580714553595</v>
       </c>
       <c r="O21" t="n">
-        <v>413.5530578288251</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548403</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>101.6373126545301</v>
       </c>
       <c r="L23" t="n">
-        <v>95.80453685554994</v>
+        <v>95.80453685555003</v>
       </c>
       <c r="M23" t="n">
-        <v>455.5481880163647</v>
+        <v>212.4807643550634</v>
       </c>
       <c r="N23" t="n">
-        <v>453.0659516825793</v>
+        <v>453.0659516825794</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790544</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P23" t="n">
-        <v>140.6577141642845</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9717,19 +9717,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>59.57067831891457</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L24" t="n">
-        <v>417.0214038611933</v>
+        <v>42.08289141893643</v>
       </c>
       <c r="M24" t="n">
         <v>408.1609432306769</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291329996</v>
+        <v>397.214965355557</v>
       </c>
       <c r="O24" t="n">
-        <v>113.8554017117318</v>
+        <v>113.8554017117319</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>107.0232382276747</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9966,13 +9966,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>350.0387835703377</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548403</v>
       </c>
       <c r="Q27" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>107.0232382276748</v>
       </c>
       <c r="L30" t="n">
-        <v>42.0828914189364</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>516.3006707847151</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10428,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,16 +10437,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>94.01961708077388</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>369.9181225579605</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>355.4562355758499</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L35" t="n">
         <v>542.9595789155856</v>
@@ -10601,10 +10601,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>418.3383206229274</v>
+        <v>228.1793563790908</v>
       </c>
       <c r="Q35" t="n">
-        <v>115.097110444407</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,22 +10662,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891457</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>282.6468090078841</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>280.7872777753503</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.59943624652226</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>518.4347927740196</v>
+        <v>233.2962518833762</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>115.097110444407</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>129.1085943645587</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>33.22243078841996</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>501.1831758739532</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11066,16 +11066,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>584.3675935406823</v>
+        <v>551.0146162905436</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>143.9688939842619</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,19 +11136,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>72.38230935981312</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>59.57067831891457</v>
+        <v>59.57067831891462</v>
       </c>
       <c r="L42" t="n">
-        <v>451.6665747045485</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>300.3753127795031</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>72.29261096215416</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.59943624652232</v>
+        <v>95.5994362465223</v>
       </c>
       <c r="K44" t="n">
-        <v>194.5438581623814</v>
+        <v>355.4562355758502</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11315,7 +11315,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>115.0971104444071</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>72.38230935981315</v>
+        <v>124.8655434488614</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11388,13 +11388,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>197.3610110723628</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548403</v>
       </c>
       <c r="Q45" t="n">
-        <v>72.2926109621542</v>
+        <v>72.29261096215419</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.3298664920139</v>
+        <v>138.3099250233392</v>
       </c>
       <c r="C11" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>220.1004714210319</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
-        <v>261.0144250789146</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>184.6142276590013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>220.1004714210319</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902831</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>184.6142276590013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>99.9332686958155</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>225.1531745250555</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>2.188471626141109e-12</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -26314,22 +26314,22 @@
         <v>172322.2420891434</v>
       </c>
       <c r="C2" t="n">
-        <v>172322.2420891435</v>
+        <v>172322.2420891434</v>
       </c>
       <c r="D2" t="n">
         <v>172322.2420891435</v>
       </c>
       <c r="E2" t="n">
-        <v>150589.5295769475</v>
+        <v>150589.5295769474</v>
       </c>
       <c r="F2" t="n">
-        <v>150589.5295769476</v>
+        <v>150589.5295769478</v>
       </c>
       <c r="G2" t="n">
         <v>172715.4136111908</v>
       </c>
       <c r="H2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="I2" t="n">
         <v>172715.4136111909</v>
@@ -26338,22 +26338,22 @@
         <v>172715.4136111906</v>
       </c>
       <c r="K2" t="n">
+        <v>172715.4136111907</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172715.4136111911</v>
+      </c>
+      <c r="M2" t="n">
         <v>172715.4136111909</v>
-      </c>
-      <c r="L2" t="n">
-        <v>172715.4136111906</v>
-      </c>
-      <c r="M2" t="n">
-        <v>172715.4136111908</v>
       </c>
       <c r="N2" t="n">
         <v>172715.4136111908</v>
       </c>
       <c r="O2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
       <c r="P2" t="n">
-        <v>172715.4136111908</v>
+        <v>172715.4136111909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339871</v>
+        <v>352409.022033987</v>
       </c>
       <c r="F3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.6400410302</v>
+        <v>76159.64004103023</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136355.5574477964</v>
+        <v>136355.5574477963</v>
       </c>
       <c r="K3" t="n">
-        <v>5.145141455743993e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.6400410302</v>
+        <v>76159.64004103029</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.36825920515</v>
+        <v>83474.36825920513</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733587</v>
+        <v>4735.800136733565</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>303300.2911377928</v>
       </c>
       <c r="F4" t="n">
-        <v>303300.2911377928</v>
+        <v>303300.2911377927</v>
       </c>
       <c r="G4" t="n">
         <v>359427.9628026185</v>
@@ -26436,7 +26436,7 @@
         <v>359427.9628026185</v>
       </c>
       <c r="I4" t="n">
-        <v>359427.9628026184</v>
+        <v>359427.9628026185</v>
       </c>
       <c r="J4" t="n">
         <v>348294.7670570374</v>
@@ -26445,16 +26445,16 @@
         <v>348294.7670570374</v>
       </c>
       <c r="L4" t="n">
-        <v>348294.7670570373</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="M4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="N4" t="n">
         <v>349934.2306458565</v>
       </c>
       <c r="O4" t="n">
-        <v>349934.2306458564</v>
+        <v>349934.2306458565</v>
       </c>
       <c r="P4" t="n">
         <v>349934.2306458564</v>
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106102</v>
+        <v>38612.602411061</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106102</v>
+        <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
-        <v>46615.93338432274</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="H5" t="n">
-        <v>46615.93338432274</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
         <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.09918276491</v>
+        <v>65173.0991827649</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.09918276491</v>
+        <v>65173.0991827649</v>
       </c>
       <c r="L5" t="n">
-        <v>65173.09918276489</v>
+        <v>65173.0991827649</v>
       </c>
       <c r="M5" t="n">
+        <v>54919.19757587669</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54919.19757587669</v>
+      </c>
+      <c r="O5" t="n">
         <v>54919.19757587668</v>
-      </c>
-      <c r="N5" t="n">
-        <v>54919.1975758767</v>
-      </c>
-      <c r="O5" t="n">
-        <v>54919.19757587669</v>
       </c>
       <c r="P5" t="n">
         <v>54919.19757587668</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281061.760367531</v>
+        <v>-281066.1289399983</v>
       </c>
       <c r="C6" t="n">
-        <v>-281061.760367531</v>
+        <v>-281066.1289399983</v>
       </c>
       <c r="D6" t="n">
-        <v>-281061.760367531</v>
+        <v>-281066.1289399982</v>
       </c>
       <c r="E6" t="n">
-        <v>-543732.3860058933</v>
+        <v>-543978.2291618293</v>
       </c>
       <c r="F6" t="n">
-        <v>-191323.3639719062</v>
+        <v>-191569.207127842</v>
       </c>
       <c r="G6" t="n">
         <v>-309488.1226167806</v>
       </c>
       <c r="H6" t="n">
+        <v>-233328.4825757503</v>
+      </c>
+      <c r="I6" t="n">
         <v>-233328.4825757504</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-233328.4825757503</v>
       </c>
       <c r="J6" t="n">
         <v>-377108.010076408</v>
@@ -26549,7 +26549,7 @@
         <v>-240752.4526286116</v>
       </c>
       <c r="L6" t="n">
-        <v>-316912.0926696418</v>
+        <v>-316912.0926696415</v>
       </c>
       <c r="M6" t="n">
         <v>-315612.3828697474</v>
@@ -26701,10 +26701,10 @@
         <v>244.1948037553046</v>
       </c>
       <c r="H2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I2" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="J2" t="n">
         <v>101.1193002222048</v>
@@ -26744,37 +26744,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="G3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="H3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="I3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="J3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178347</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="M3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="N3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="O3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="P3" t="n">
         <v>150.9384803178346</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="I4" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160458</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160458</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160454</v>
+        <v>877.9875306160455</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139222</v>
+        <v>611.9806671139223</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139223</v>
       </c>
       <c r="O4" t="n">
         <v>611.9806671139222</v>
@@ -26917,34 +26917,34 @@
         <v>148.9952537040168</v>
       </c>
       <c r="F2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.19955005128776</v>
+        <v>95.19955005128779</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>5.919750170916899</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>95.19955005128786</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70.41020702091002</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>5.919750170916956</v>
-      </c>
-      <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>95.19955005128774</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70.41020702090999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5.919750170916984</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178348</v>
+        <v>150.9384803178346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737889</v>
+        <v>503.0490181737886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.931648940134</v>
+        <v>108.9316489401339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>148.9952537040168</v>
       </c>
       <c r="K2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128776</v>
+        <v>95.19955005128779</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916956</v>
+        <v>5.919750170916899</v>
       </c>
       <c r="P2" t="n">
-        <v>6.431426819679991e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S11" t="n">
         <v>148.9952537040168</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28178,13 +28178,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
         <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>56.52047122575468</v>
@@ -28214,22 +28214,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S12" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
-        <v>148.9952537040168</v>
+        <v>48.00210785479516</v>
       </c>
       <c r="U12" t="n">
         <v>148.9952537040168</v>
       </c>
       <c r="V12" t="n">
-        <v>124.5750417359985</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J13" t="n">
-        <v>40.21324716010341</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.3602574048548</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R13" t="n">
         <v>135.7881746594375</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S14" t="n">
         <v>148.9952537040168</v>
@@ -28409,16 +28409,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>95.80294554235505</v>
@@ -28451,25 +28451,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S15" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>101.1944160164558</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>94.2982440865581</v>
+      </c>
+      <c r="X15" t="n">
         <v>148.9952537040168</v>
-      </c>
-      <c r="W15" t="n">
-        <v>148.9952537040168</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J16" t="n">
-        <v>40.21324716010341</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.3602574048548</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R16" t="n">
         <v>135.7881746594375</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28646,13 +28646,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>28.36898712992841</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28691,13 +28691,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>25.68463356194573</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -28709,7 +28709,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28725,25 +28725,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>7.056473950692407</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I19" t="n">
         <v>134.5756943977516</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R19" t="n">
         <v>135.7881746594375</v>
@@ -28779,13 +28779,13 @@
         <v>244.1948037553046</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553046</v>
+        <v>60.4676153178313</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I20" t="n">
         <v>147.6958378085047</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28855,19 +28855,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="21">
@@ -28883,22 +28883,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
-        <v>26.23678887051395</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,16 +28934,16 @@
         <v>185.4896446502776</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>14.31183963624198</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28974,10 +28974,10 @@
         <v>166.958367000993</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29007,19 +29007,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>31.26363389285413</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>244.1948037553046</v>
+        <v>229.7185927249117</v>
       </c>
       <c r="V22" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W22" t="n">
-        <v>244.1948037553046</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="C23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="D23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="E23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="F23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="G23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="H23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="I23" t="n">
         <v>147.6958378085047</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29092,19 +29092,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="V23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="W23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="Y23" t="n">
-        <v>244.1948037553046</v>
+        <v>244.1948037553047</v>
       </c>
     </row>
     <row r="24">
@@ -29120,10 +29120,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>120.4199577948595</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29132,10 +29132,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.02901935393508</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S24" t="n">
         <v>145.2410726443114</v>
@@ -29174,10 +29174,10 @@
         <v>216.28848525876</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>184.0819588765095</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H25" t="n">
         <v>155.3589542808002</v>
@@ -29217,7 +29217,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010341</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29253,13 +29253,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>242.786239723679</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>244.1948037553046</v>
+        <v>131.2959841745162</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -29305,13 +29305,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>45.98902442737256</v>
+      </c>
+      <c r="O26" t="n">
         <v>101.1193002222048</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>45.98902442737278</v>
       </c>
       <c r="P26" t="n">
         <v>101.1193002222048</v>
@@ -29545,19 +29545,19 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N29" t="n">
+        <v>95.49255895726662</v>
+      </c>
+      <c r="O29" t="n">
         <v>101.1193002222048</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
       <c r="P29" t="n">
-        <v>45.98902442737301</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>101.1193002222048</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S29" t="n">
         <v>101.1193002222048</v>
@@ -29776,13 +29776,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>45.98902442737113</v>
       </c>
       <c r="M32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
-        <v>45.98902442737085</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>101.1193002222048</v>
@@ -29940,7 +29940,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N34" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222035</v>
       </c>
       <c r="O34" t="n">
         <v>101.1193002222048</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S35" t="n">
         <v>171.5295072431148</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>76.32865326014419</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>76.32865326014449</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010341</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,22 +30186,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R37" t="n">
-        <v>93.1523553327047</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="T37" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="U37" t="n">
-        <v>171.5295072431148</v>
+        <v>113.5334305115271</v>
       </c>
       <c r="V37" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>171.5295072431148</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S38" t="n">
         <v>171.5295072431148</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>76.32865326014331</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30350,7 +30350,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>76.32865326014405</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
-        <v>40.21324716010341</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,13 +30423,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.3602574048548</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
       </c>
       <c r="S40" t="n">
-        <v>113.5334305115269</v>
+        <v>113.5334305115271</v>
       </c>
       <c r="T40" t="n">
         <v>171.5295072431148</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.61576569231045</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S41" t="n">
         <v>171.5295072431148</v>
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>76.32865326014468</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>76.32865326014448</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30621,10 +30621,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>87.86477176696127</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -30633,13 +30633,13 @@
         <v>166.958367000993</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I43" t="n">
         <v>134.5756943977516</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.21324716010344</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.3602574048548</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.7881746594375</v>
@@ -30684,7 +30684,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.5761247093156</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.6157656923105</v>
+        <v>51.61576569231049</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>37.29963390620931</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393511</v>
+        <v>39.0290193539351</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>37.29963390620921</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30873,7 +30873,7 @@
         <v>155.3589542808002</v>
       </c>
       <c r="I46" t="n">
-        <v>76.57961766616415</v>
+        <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
         <v>40.21324716010344</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485483</v>
+        <v>15.36025740485482</v>
       </c>
       <c r="R46" t="n">
         <v>135.7881746594375</v>
@@ -30909,16 +30909,16 @@
         <v>171.5295072431148</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V46" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="W46" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5295072431148</v>
+        <v>113.533430511527</v>
       </c>
       <c r="Y46" t="n">
         <v>171.5295072431148</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J11" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M11" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N11" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O11" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S11" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T11" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H12" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I12" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R12" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T12" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H13" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J13" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L13" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N13" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R13" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T13" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J14" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M14" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N14" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O14" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S14" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T14" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H15" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I15" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R15" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T15" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H16" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J16" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K16" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L16" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N16" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O16" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R16" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T16" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I17" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J17" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M17" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N17" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O17" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S17" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T17" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H18" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I18" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R18" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T18" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H19" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J19" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L19" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N19" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R19" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S19" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T19" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I20" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J20" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M20" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N20" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O20" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S20" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T20" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H21" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I21" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R21" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T21" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H22" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J22" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L22" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N22" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R22" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S22" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T22" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I23" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J23" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M23" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N23" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O23" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S23" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T23" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H24" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I24" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R24" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T24" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H25" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J25" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L25" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N25" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R25" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S25" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T25" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I26" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J26" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M26" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N26" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O26" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S26" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T26" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H27" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I27" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R27" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T27" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H28" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J28" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L28" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N28" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R28" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S28" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T28" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742093</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105623</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478723</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J29" t="n">
-        <v>51.50036118141035</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951665</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756463</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M29" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319077</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O29" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539708</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.5262625785832</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679471</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S29" t="n">
-        <v>13.82717837283481</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T29" t="n">
-        <v>2.656213859663603</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593674</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3246601274760973</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413887</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I30" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685356</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775208</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221139</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M30" t="n">
-        <v>82.2614717732199</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N30" t="n">
-        <v>84.4386881544083</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454319</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865931</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.44258048273831</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R30" t="n">
         <v>20.15740686206857</v>
       </c>
       <c r="S30" t="n">
-        <v>6.03041947307575</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397076</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U30" t="n">
         <v>0.02135921891290114</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354396</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718728</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596676</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986558</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K31" t="n">
-        <v>31.6228488272447</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L31" t="n">
-        <v>40.46635913307981</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361349</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N31" t="n">
-        <v>41.65159736377234</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183106</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718806</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799304</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R31" t="n">
         <v>12.23838891232803</v>
       </c>
       <c r="S31" t="n">
-        <v>4.743427324086705</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T31" t="n">
         <v>1.162968618842332</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I32" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J32" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M32" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N32" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O32" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S32" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T32" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H33" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I33" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T33" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H34" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J34" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L34" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N34" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R34" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S34" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T34" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H35" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I35" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J35" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K35" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L35" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M35" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N35" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O35" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P35" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R35" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S35" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T35" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H36" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I36" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J36" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L36" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M36" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N36" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O36" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P36" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R36" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S36" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T36" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H37" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I37" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J37" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K37" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L37" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M37" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N37" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O37" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P37" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R37" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S37" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T37" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I38" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J38" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L38" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M38" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N38" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O38" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R38" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S38" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T38" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H39" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I39" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J39" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M39" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N39" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P39" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T39" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H40" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J40" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K40" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L40" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M40" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N40" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O40" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R40" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S40" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T40" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742096</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105626</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I41" t="n">
-        <v>23.39318899478724</v>
+        <v>23.39318899478722</v>
       </c>
       <c r="J41" t="n">
-        <v>51.50036118141038</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951669</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L41" t="n">
-        <v>95.75567530756467</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M41" t="n">
-        <v>106.5466389230513</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N41" t="n">
-        <v>108.2706749319078</v>
+        <v>108.2706749319076</v>
       </c>
       <c r="O41" t="n">
-        <v>102.236928143323</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539714</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858323</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R41" t="n">
-        <v>38.11613794679473</v>
+        <v>38.11613794679469</v>
       </c>
       <c r="S41" t="n">
-        <v>13.82717837283482</v>
+        <v>13.8271783728348</v>
       </c>
       <c r="T41" t="n">
-        <v>2.656213859663604</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04854302884593677</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3246601274760975</v>
+        <v>0.3246601274760971</v>
       </c>
       <c r="H42" t="n">
-        <v>3.135533336413889</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I42" t="n">
-        <v>11.17799123108493</v>
+        <v>11.17799123108492</v>
       </c>
       <c r="J42" t="n">
-        <v>30.67326230685358</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775211</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L42" t="n">
-        <v>70.49254215221143</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M42" t="n">
-        <v>82.26147177321994</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N42" t="n">
-        <v>84.43868815440835</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454324</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P42" t="n">
-        <v>61.99584486865935</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.44258048273834</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206858</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075753</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T42" t="n">
-        <v>1.308608145397077</v>
+        <v>1.308608145397075</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02135921891290116</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354397</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H43" t="n">
-        <v>2.41996448771873</v>
+        <v>2.419964487718727</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596681</v>
+        <v>8.185319555596672</v>
       </c>
       <c r="J43" t="n">
-        <v>19.24341903986559</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K43" t="n">
-        <v>31.62284882724472</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307983</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M43" t="n">
-        <v>42.66610190361352</v>
+        <v>42.66610190361347</v>
       </c>
       <c r="N43" t="n">
-        <v>41.65159736377237</v>
+        <v>41.65159736377232</v>
       </c>
       <c r="O43" t="n">
-        <v>38.47199167183108</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718808</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.79171052799305</v>
+        <v>22.79171052799303</v>
       </c>
       <c r="R43" t="n">
-        <v>12.23838891232804</v>
+        <v>12.23838891232803</v>
       </c>
       <c r="S43" t="n">
-        <v>4.743427324086707</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T43" t="n">
-        <v>1.162968618842333</v>
+        <v>1.162968618842332</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01484640790011491</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.606787860574209</v>
+        <v>0.6067878605742091</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105619</v>
+        <v>6.214266177105621</v>
       </c>
       <c r="I44" t="n">
         <v>23.39318899478722</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141032</v>
+        <v>51.50036118141033</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951659</v>
+        <v>77.18569131951662</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756457</v>
+        <v>95.75567530756459</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230511</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N44" t="n">
         <v>108.2706749319076</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433228</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539704</v>
+        <v>87.25685283539705</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858316</v>
+        <v>65.52626257858317</v>
       </c>
       <c r="R44" t="n">
         <v>38.11613794679469</v>
@@ -34396,10 +34396,10 @@
         <v>13.8271783728348</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663601</v>
+        <v>2.656213859663602</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593671</v>
+        <v>0.04854302884593672</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,46 +34439,46 @@
         <v>0.3246601274760971</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413885</v>
+        <v>3.135533336413886</v>
       </c>
       <c r="I45" t="n">
         <v>11.17799123108492</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685354</v>
+        <v>30.67326230685355</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775204</v>
+        <v>52.42549084775206</v>
       </c>
       <c r="L45" t="n">
-        <v>70.49254215221134</v>
+        <v>70.49254215221136</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321985</v>
+        <v>82.26147177321987</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440825</v>
+        <v>84.43868815440827</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454315</v>
+        <v>77.24490322454317</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865928</v>
+        <v>61.99584486865929</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273829</v>
+        <v>41.4425804827383</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206856</v>
+        <v>20.15740686206857</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075747</v>
+        <v>6.030419473075748</v>
       </c>
       <c r="T45" t="n">
         <v>1.308608145397075</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290113</v>
+        <v>0.02135921891290114</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354394</v>
+        <v>0.2721841448354395</v>
       </c>
       <c r="H46" t="n">
         <v>2.419964487718727</v>
@@ -34524,13 +34524,13 @@
         <v>8.185319555596672</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986556</v>
+        <v>19.24341903986557</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724468</v>
+        <v>31.62284882724469</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307979</v>
+        <v>40.4663591330798</v>
       </c>
       <c r="M46" t="n">
         <v>42.66610190361347</v>
@@ -34539,10 +34539,10 @@
         <v>41.65159736377232</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183103</v>
+        <v>38.47199167183104</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718804</v>
+        <v>32.91943511718805</v>
       </c>
       <c r="Q46" t="n">
         <v>22.79171052799303</v>
@@ -34551,13 +34551,13 @@
         <v>12.23838891232803</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086702</v>
+        <v>4.743427324086703</v>
       </c>
       <c r="T46" t="n">
         <v>1.162968618842332</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011489</v>
+        <v>0.0148464079001149</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K11" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>311.2840410124028</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>317.7183644071681</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.9123774134691</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K12" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L12" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M12" t="n">
-        <v>257.4812755527024</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>165.9452389699832</v>
       </c>
       <c r="P12" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.8078630944497</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L13" t="n">
         <v>142.0896716585945</v>
@@ -35583,7 +35583,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P13" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.2261634771737</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K14" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9385124422572</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>290.750106913609</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M15" t="n">
-        <v>158.149964604161</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>75.55535183907151</v>
       </c>
       <c r="O15" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L16" t="n">
         <v>142.0896716585945</v>
@@ -35820,7 +35820,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P16" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>97.25790598361463</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O17" t="n">
-        <v>374.9385124422572</v>
+        <v>311.2840410124021</v>
       </c>
       <c r="P17" t="n">
-        <v>317.7183644071681</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L18" t="n">
-        <v>165.945238969984</v>
+        <v>83.35062620489423</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O18" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L19" t="n">
         <v>142.0896716585945</v>
@@ -36057,7 +36057,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P19" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.2261634771737</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K20" t="n">
-        <v>131.8710887809561</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L20" t="n">
-        <v>374.9385124422572</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>187.0578775352283</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P20" t="n">
-        <v>317.7183644071681</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.9123774134691</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.53603658271837</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>165.945238969984</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.9816185420595</v>
       </c>
       <c r="O21" t="n">
-        <v>374.9385124422572</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P21" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.8078630944497</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L22" t="n">
         <v>142.0896716585945</v>
@@ -36294,7 +36294,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P22" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K23" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>374.9385124422569</v>
+        <v>131.8710887809555</v>
       </c>
       <c r="N23" t="n">
         <v>374.9385124422569</v>
@@ -36373,10 +36373,10 @@
         <v>374.9385124422569</v>
       </c>
       <c r="P23" t="n">
-        <v>40.03775794852513</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422569</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>374.9385124422569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O24" t="n">
         <v>75.24085632516395</v>
@@ -36455,7 +36455,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8078630944497</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L25" t="n">
         <v>142.0896716585945</v>
@@ -36531,7 +36531,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P25" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>225.3454636993784</v>
       </c>
       <c r="K26" t="n">
-        <v>420.8710239101889</v>
+        <v>420.8710239101888</v>
       </c>
       <c r="L26" t="n">
-        <v>548.2743422822405</v>
+        <v>548.2743422822404</v>
       </c>
       <c r="M26" t="n">
-        <v>604.8772181887792</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N26" t="n">
-        <v>490.423562495257</v>
+        <v>536.4125869226294</v>
       </c>
       <c r="O26" t="n">
-        <v>456.3113914321442</v>
+        <v>511.4416672269761</v>
       </c>
       <c r="P26" t="n">
-        <v>418.8376646293729</v>
+        <v>418.8376646293728</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.0316776356739</v>
+        <v>262.0316776356738</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989432</v>
+        <v>49.50353452989428</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K27" t="n">
-        <v>47.45255990876011</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L27" t="n">
         <v>440.0095574755605</v>
@@ -36683,16 +36683,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N27" t="n">
-        <v>600.8686337333196</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O27" t="n">
-        <v>473.4064696731805</v>
+        <v>311.4242381837697</v>
       </c>
       <c r="P27" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210136</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K28" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339377</v>
       </c>
       <c r="L28" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M28" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N28" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O28" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P28" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281734996</v>
+        <v>85.75904281734995</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>225.3454636993784</v>
       </c>
       <c r="K29" t="n">
-        <v>420.8710239101889</v>
+        <v>420.8710239101888</v>
       </c>
       <c r="L29" t="n">
         <v>548.2743422822404</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8772181887792</v>
+        <v>604.8772181887791</v>
       </c>
       <c r="N29" t="n">
-        <v>591.5428627174617</v>
+        <v>585.9161214525235</v>
       </c>
       <c r="O29" t="n">
-        <v>410.3223670047713</v>
+        <v>511.4416672269761</v>
       </c>
       <c r="P29" t="n">
-        <v>363.707388834541</v>
+        <v>418.8376646293728</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356739</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989432</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271835</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>284.2341297974376</v>
+        <v>47.45255990876018</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M30" t="n">
-        <v>483.0782399962951</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N30" t="n">
         <v>600.8686337333195</v>
@@ -36929,7 +36929,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210134</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
       </c>
       <c r="L31" t="n">
-        <v>243.2089718807993</v>
+        <v>243.2089718807992</v>
       </c>
       <c r="M31" t="n">
         <v>262.9707618506685</v>
       </c>
       <c r="N31" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057754</v>
       </c>
       <c r="O31" t="n">
-        <v>239.0495206775608</v>
+        <v>239.0495206775607</v>
       </c>
       <c r="P31" t="n">
-        <v>197.6432643577139</v>
+        <v>197.6432643577138</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281734995</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>420.8710239101889</v>
       </c>
       <c r="L32" t="n">
-        <v>447.1550420600356</v>
+        <v>493.1440664874066</v>
       </c>
       <c r="M32" t="n">
         <v>604.8772181887792</v>
       </c>
       <c r="N32" t="n">
-        <v>536.4125869226278</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O32" t="n">
         <v>511.4416672269762</v>
@@ -37090,7 +37090,7 @@
         <v>262.0316776356739</v>
       </c>
       <c r="R32" t="n">
-        <v>49.50353452989433</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.53603658271837</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K33" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>440.0095574755605</v>
@@ -37157,16 +37157,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N33" t="n">
-        <v>71.74316416747392</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O33" t="n">
-        <v>473.4064696731805</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P33" t="n">
-        <v>367.1432380764343</v>
+        <v>323.0597614024765</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.90605306210138</v>
+        <v>60.90605306210141</v>
       </c>
       <c r="K34" t="n">
         <v>166.6857730339378</v>
@@ -37236,7 +37236,7 @@
         <v>262.9707618506686</v>
       </c>
       <c r="N34" t="n">
-        <v>262.3894246057755</v>
+        <v>262.3894246057741</v>
       </c>
       <c r="O34" t="n">
         <v>239.0495206775608</v>
@@ -37245,7 +37245,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281735002</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8189229213199</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M35" t="n">
         <v>503.7579179665744</v>
       </c>
       <c r="N35" t="n">
-        <v>490.423562495257</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O35" t="n">
-        <v>410.3223670047714</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P35" t="n">
-        <v>317.7183644071681</v>
+        <v>127.5594001633314</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M36" t="n">
-        <v>572.1941520865799</v>
+        <v>249.4243782194641</v>
       </c>
       <c r="N36" t="n">
-        <v>600.8686337333196</v>
+        <v>600.8686337333195</v>
       </c>
       <c r="O36" t="n">
-        <v>242.1727323887824</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P36" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>200.8078630944497</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L37" t="n">
         <v>142.0896716585945</v>
@@ -37479,7 +37479,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P37" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K38" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M38" t="n">
-        <v>437.8251171999117</v>
+        <v>152.6865763092682</v>
       </c>
       <c r="N38" t="n">
-        <v>490.423562495257</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O38" t="n">
-        <v>410.3223670047714</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P38" t="n">
-        <v>317.7183644071681</v>
+        <v>317.718364407168</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>56.72628500474554</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K39" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>440.0095574755605</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N39" t="n">
-        <v>600.8686337333196</v>
+        <v>478.9067229606532</v>
       </c>
       <c r="O39" t="n">
-        <v>473.4064696731805</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P39" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.8078630944497</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L40" t="n">
         <v>142.0896716585945</v>
@@ -37716,7 +37716,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P40" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.2261634771737</v>
+        <v>124.2261634771736</v>
       </c>
       <c r="K41" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600356</v>
+        <v>447.1550420600355</v>
       </c>
       <c r="M41" t="n">
-        <v>503.7579179665744</v>
+        <v>470.4049407164357</v>
       </c>
       <c r="N41" t="n">
-        <v>490.423562495257</v>
+        <v>490.4235624952569</v>
       </c>
       <c r="O41" t="n">
-        <v>59.25102534746441</v>
+        <v>410.3223670047713</v>
       </c>
       <c r="P41" t="n">
-        <v>317.7183644071681</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.9123774134691</v>
+        <v>160.912377413469</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.53603658271834</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>409.5836832856121</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M42" t="n">
         <v>572.1941520865799</v>
       </c>
       <c r="N42" t="n">
-        <v>600.8686337333196</v>
+        <v>278.098859866203</v>
       </c>
       <c r="O42" t="n">
-        <v>473.4064696731805</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P42" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>200.8078630944496</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.56647281173301</v>
+        <v>65.56647281173298</v>
       </c>
       <c r="L43" t="n">
         <v>142.0896716585945</v>
@@ -37953,7 +37953,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P43" t="n">
-        <v>96.52396413550909</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>92.90654550785122</v>
+        <v>253.8189229213201</v>
       </c>
       <c r="L44" t="n">
         <v>447.1550420600355</v>
       </c>
       <c r="M44" t="n">
-        <v>503.7579179665743</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N44" t="n">
         <v>490.4235624952569</v>
@@ -38035,7 +38035,7 @@
         <v>317.718364407168</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.912377413469</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.4832340890482</v>
       </c>
       <c r="K45" t="n">
         <v>284.2341297974376</v>
@@ -38102,16 +38102,16 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865798</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N45" t="n">
         <v>600.8686337333195</v>
       </c>
       <c r="O45" t="n">
-        <v>158.7464656857949</v>
+        <v>473.4064696731804</v>
       </c>
       <c r="P45" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550905</v>
+        <v>96.52396413550906</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
